--- a/receive-data/testcases/case1.xlsx
+++ b/receive-data/testcases/case1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYENLT\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC85080-6258-4306-A88A-3A04C504802B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="data (2)" sheetId="3" r:id="rId1"/>
@@ -19,28 +13,23 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'data (2)'!$A$1:$D$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{9EAB25EF-3178-4461-A031-1DC266CD6C08}" keepAlive="1" name="Query - data" description="Connection to the 'data' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data;Extended Properties=&quot;&quot;" command="SELECT * FROM [data]"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Query - data" description="Connection to the 'data' query in the workbook." type="5" background="1" refreshedVersion="2" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data;Extended Properties=&quot;&quot;" command="SELECT * FROM [data]" commandType="2"/>
   </connection>
-  <connection id="2" xr16:uid="{E4BCB636-3BD0-4137-99B1-3493221ED80F}" keepAlive="1" name="Query - data (2)" description="Connection to the 'data (2)' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;data (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [data (2)]"/>
+  <connection id="2" name="Query - data (2)" description="Connection to the 'data (2)' query in the workbook." type="5" background="1" refreshedVersion="2" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;data (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [data (2)]" commandType="2"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -54,16 +43,10 @@
     <t>type</t>
   </si>
   <si>
-    <t>01/03/2020 10:20:11</t>
-  </si>
-  <si>
     <t>Any text there</t>
   </si>
   <si>
     <t>Deposit</t>
-  </si>
-  <si>
-    <t>02/03/2020 20:20:11</t>
   </si>
   <si>
     <t>Withdraw</t>
@@ -72,25 +55,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,43 +417,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="4">
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{60B471FE-5A62-4689-A16E-ED7C61D23174}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="1" nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="date" tableColumnId="1"/>
       <queryTableField id="2" name="content" tableColumnId="2"/>
@@ -146,13 +748,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5C5F643F-731F-4102-B527-81AC4264C692}" name="data__2" displayName="data__2" ref="A1:D3" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{5C5F643F-731F-4102-B527-81AC4264C692}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data__2" displayName="data__2" ref="A1:D3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{24673FBA-FD92-4D65-9376-FA7A84183B48}" uniqueName="1" name="date" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{372236EE-DFE4-4398-8AA9-FEBBD7655189}" uniqueName="2" name="content" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{7158C1DD-B2A2-416B-A414-8EE9546872C9}" uniqueName="3" name="amount" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{3DA1C22B-3C5E-4FC1-9A83-78163E72E70F}" uniqueName="4" name="type" queryTableFieldId="4" dataDxfId="0"/>
+    <tableColumn id="1" name="date" uniqueName="1" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" name="content" uniqueName="2" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" name="amount" uniqueName="3" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" name="type" uniqueName="4" queryTableFieldId="4" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -201,7 +803,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -236,7 +838,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -410,32 +1012,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3836441-5272-4CA7-BBA5-1DFCA20B6FC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD35"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="81.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="10.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,36 +1046,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>44542.4306828704</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>44542.847349537</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
         <v>-50</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -486,16 +1084,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -504,8 +1104,6 @@
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B8E0007-95B9-47BC-82D1-61126D961D00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>